--- a/biology/Zoologie/Bostrichidae/Bostrichidae.xlsx
+++ b/biology/Zoologie/Bostrichidae/Bostrichidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bostrichidae forment une famille d'insectes coléoptères. Certains d'entre eux sont xylophages et s'attaquent au hêtre, au chêne et au châtaignier, d'autres se nourrissent de grains de céréales. Denops albofasciatus est un de leurs prédateurs naturels.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 août 2014) :
 genre Acantholyctus
 genre Amintinus
 genre Amphicerus
@@ -604,7 +618,7 @@
 genre Xylopsocus
 genre Xylothrips
 genre Xylotillus
-Selon ITIS      (28 août 2014)[2] :
+Selon ITIS      (28 août 2014) :
 sous-famille Apatinae Jacquelin du Val, 1861
 sous-famille Bostrichinae Latreille, 1802
 sous-famille Dinoderinae C. G. Thomson, 1863
@@ -641,7 +655,9 @@
           <t>Confusion homophonique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À ne pas confondre avec le bostryche typographe (Ips typographus), coléoptère ravageur des épicéas, qui appartient à la famille des Scolytidae 
 </t>
